--- a/docs/queried_data.xlsx
+++ b/docs/queried_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>批次</t>
-  </si>
-  <si>
-    <t>批次线</t>
   </si>
   <si>
     <t>院校级别</t>
@@ -437,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,568 +471,517 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>85804</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>581</v>
+      </c>
+      <c r="G2">
+        <v>9489</v>
+      </c>
+      <c r="H2">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>537</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>581</v>
-      </c>
-      <c r="H2">
-        <v>9489</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
       <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>85805</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>548</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>591</v>
       </c>
       <c r="G3">
-        <v>591</v>
+        <v>9870</v>
       </c>
       <c r="H3">
-        <v>9870</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>85806</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>548</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>582</v>
       </c>
       <c r="G4">
-        <v>582</v>
+        <v>12267</v>
       </c>
       <c r="H4">
-        <v>12267</v>
-      </c>
-      <c r="I4">
         <v>20</v>
       </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>85807</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>543</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>544</v>
       </c>
       <c r="G5">
-        <v>544</v>
+        <v>16293</v>
       </c>
       <c r="H5">
-        <v>16293</v>
-      </c>
-      <c r="I5">
         <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>85808</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>521</v>
-      </c>
-      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>567</v>
+      </c>
+      <c r="G6">
+        <v>7281</v>
+      </c>
+      <c r="H6">
+        <v>97</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
-        <v>567</v>
-      </c>
-      <c r="H6">
-        <v>7281</v>
-      </c>
-      <c r="I6">
-        <v>97</v>
-      </c>
       <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>85809</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>512</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>570</v>
       </c>
       <c r="G7">
-        <v>570</v>
+        <v>6493</v>
       </c>
       <c r="H7">
-        <v>6493</v>
-      </c>
-      <c r="I7">
         <v>99</v>
       </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
       <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>85810</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>538</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>588</v>
       </c>
       <c r="G8">
-        <v>588</v>
+        <v>6688</v>
       </c>
       <c r="H8">
-        <v>6688</v>
-      </c>
-      <c r="I8">
         <v>107</v>
       </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
       <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>85811</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>516</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>562</v>
       </c>
       <c r="G9">
-        <v>562</v>
+        <v>7219</v>
       </c>
       <c r="H9">
-        <v>7219</v>
-      </c>
-      <c r="I9">
         <v>112</v>
       </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
       <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>85953</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>555</v>
-      </c>
-      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>569</v>
+      </c>
+      <c r="G10">
+        <v>3228</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="G10">
-        <v>569</v>
-      </c>
-      <c r="H10">
-        <v>3228</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
       <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>85954</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>583</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>591</v>
       </c>
       <c r="G11">
-        <v>591</v>
+        <v>3539</v>
       </c>
       <c r="H11">
-        <v>3539</v>
-      </c>
-      <c r="I11">
         <v>8</v>
       </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
       <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>85955</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>579</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>587</v>
       </c>
       <c r="G12">
-        <v>587</v>
+        <v>3670</v>
       </c>
       <c r="H12">
-        <v>3670</v>
-      </c>
-      <c r="I12">
         <v>7</v>
       </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
       <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>85956</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>565</v>
-      </c>
-      <c r="F13" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>567</v>
       </c>
       <c r="G13">
-        <v>567</v>
+        <v>3921</v>
       </c>
       <c r="H13">
-        <v>3921</v>
-      </c>
-      <c r="I13">
         <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>85957</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>531</v>
-      </c>
-      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>565</v>
+      </c>
+      <c r="G14">
+        <v>1567</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
         <v>15</v>
       </c>
-      <c r="G14">
-        <v>565</v>
-      </c>
-      <c r="H14">
-        <v>1567</v>
-      </c>
-      <c r="I14">
-        <v>32</v>
-      </c>
       <c r="J14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>85958</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>532</v>
-      </c>
-      <c r="F15" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>572</v>
       </c>
       <c r="G15">
-        <v>572</v>
+        <v>1666</v>
       </c>
       <c r="H15">
-        <v>1666</v>
-      </c>
-      <c r="I15">
         <v>33</v>
       </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
       <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>85959</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>547</v>
-      </c>
-      <c r="F16" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>582</v>
       </c>
       <c r="G16">
-        <v>582</v>
+        <v>1549</v>
       </c>
       <c r="H16">
-        <v>1549</v>
-      </c>
-      <c r="I16">
         <v>32</v>
       </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
       <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>85960</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>523</v>
-      </c>
-      <c r="F17" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>556</v>
       </c>
       <c r="G17">
-        <v>556</v>
+        <v>1687</v>
       </c>
       <c r="H17">
-        <v>1687</v>
-      </c>
-      <c r="I17">
         <v>30</v>
       </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
       <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/queried_data.xlsx
+++ b/docs/queried_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
   <si>
     <t>院校代码</t>
   </si>
@@ -58,16 +58,31 @@
     <t>年份</t>
   </si>
   <si>
-    <t>陆军工程大学</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>西北大学</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>西安市</t>
+  </si>
+  <si>
+    <t>文史</t>
   </si>
   <si>
     <t>理工</t>
   </si>
   <si>
-    <t>本科二批</t>
+    <t>陕西省</t>
+  </si>
+  <si>
+    <t>本科一批</t>
+  </si>
+  <si>
+    <t>分数优先</t>
   </si>
 </sst>
 </file>
@@ -425,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +492,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>17</v>
+        <v>8008</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,37 +501,565 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>497</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>497</v>
       </c>
       <c r="L2">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="M2">
-        <v>51503</v>
+        <v>2406</v>
       </c>
       <c r="N2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>8008</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>914</v>
+      </c>
+      <c r="K3">
+        <v>914</v>
+      </c>
+      <c r="L3">
+        <v>554</v>
+      </c>
+      <c r="M3">
+        <v>14061</v>
+      </c>
+      <c r="N3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>8008</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>522</v>
+      </c>
+      <c r="K4">
+        <v>522</v>
+      </c>
+      <c r="L4">
+        <v>561</v>
+      </c>
+      <c r="M4">
+        <v>2502</v>
+      </c>
+      <c r="N4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>8008</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>832</v>
+      </c>
+      <c r="K5">
+        <v>832</v>
+      </c>
+      <c r="L5">
+        <v>560</v>
+      </c>
+      <c r="M5">
+        <v>13465</v>
+      </c>
+      <c r="N5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>8008</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6">
+        <v>435</v>
+      </c>
+      <c r="K6">
+        <v>435</v>
+      </c>
+      <c r="L6">
+        <v>566</v>
+      </c>
+      <c r="M6">
+        <v>2370</v>
+      </c>
+      <c r="N6">
         <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>8008</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>628</v>
+      </c>
+      <c r="K7">
+        <v>628</v>
+      </c>
+      <c r="L7">
+        <v>549</v>
+      </c>
+      <c r="M7">
+        <v>13372</v>
+      </c>
+      <c r="N7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>9308</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <v>65</v>
+      </c>
+      <c r="L8">
+        <v>516</v>
+      </c>
+      <c r="M8">
+        <v>21799</v>
+      </c>
+      <c r="N8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>8008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9">
+        <v>356</v>
+      </c>
+      <c r="K9">
+        <v>356</v>
+      </c>
+      <c r="L9">
+        <v>584</v>
+      </c>
+      <c r="M9">
+        <v>2151</v>
+      </c>
+      <c r="N9">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>8008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <v>539</v>
+      </c>
+      <c r="K10">
+        <v>539</v>
+      </c>
+      <c r="L10">
+        <v>581</v>
+      </c>
+      <c r="M10">
+        <v>11823</v>
+      </c>
+      <c r="N10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>9308</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
+      </c>
+      <c r="K11">
+        <v>65</v>
+      </c>
+      <c r="L11">
+        <v>553</v>
+      </c>
+      <c r="M11">
+        <v>18726</v>
+      </c>
+      <c r="N11">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>8008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>401</v>
+      </c>
+      <c r="K12">
+        <v>401</v>
+      </c>
+      <c r="L12">
+        <v>589</v>
+      </c>
+      <c r="M12">
+        <v>2468</v>
+      </c>
+      <c r="N12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>8008</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13">
+        <v>612</v>
+      </c>
+      <c r="K13">
+        <v>612</v>
+      </c>
+      <c r="L13">
+        <v>581</v>
+      </c>
+      <c r="M13">
+        <v>11709</v>
+      </c>
+      <c r="N13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>9308</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14">
+        <v>65</v>
+      </c>
+      <c r="K14">
+        <v>65</v>
+      </c>
+      <c r="L14">
+        <v>556</v>
+      </c>
+      <c r="M14">
+        <v>18583</v>
+      </c>
+      <c r="N14">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
